--- a/plan/excel/levelup_等级表.xlsx
+++ b/plan/excel/levelup_等级表.xlsx
@@ -16,8 +16,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="1"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+每一行表示升到本等级所需</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -39,27 +73,155 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>升到下一级所需经验</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>exp</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>lv</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jl</t>
+  </si>
+  <si>
+    <t>needs#id_cnt</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>4113_1</t>
+  </si>
+  <si>
+    <t>4113_2</t>
+  </si>
+  <si>
+    <t>4113_3</t>
+  </si>
+  <si>
+    <t>4113_4</t>
+  </si>
+  <si>
+    <t>4113_5</t>
+  </si>
+  <si>
+    <t>角色升级所需经验</t>
+  </si>
+  <si>
+    <t>英雄升级所需材料</t>
+  </si>
+  <si>
+    <t>4113_6</t>
+  </si>
+  <si>
+    <t>4113_7</t>
+  </si>
+  <si>
+    <t>4113_8</t>
+  </si>
+  <si>
+    <t>4113_9</t>
+  </si>
+  <si>
+    <t>4113_10</t>
+  </si>
+  <si>
+    <t>4113_11</t>
+  </si>
+  <si>
+    <t>4113_12</t>
+  </si>
+  <si>
+    <t>4113_13</t>
+  </si>
+  <si>
+    <t>4113_14</t>
+  </si>
+  <si>
+    <t>4113_15</t>
+  </si>
+  <si>
+    <t>4113_16</t>
+  </si>
+  <si>
+    <t>4113_17</t>
+  </si>
+  <si>
+    <t>4113_18</t>
+  </si>
+  <si>
+    <t>4113_19</t>
+  </si>
+  <si>
+    <t>4113_20</t>
+  </si>
+  <si>
+    <t>4113_21</t>
+  </si>
+  <si>
+    <t>4113_22</t>
+  </si>
+  <si>
+    <t>4113_23</t>
+  </si>
+  <si>
+    <t>4113_24</t>
+  </si>
+  <si>
+    <t>4113_25</t>
+  </si>
+  <si>
+    <t>4113_26</t>
+  </si>
+  <si>
+    <t>4113_27</t>
+  </si>
+  <si>
+    <t>4113_28</t>
+  </si>
+  <si>
+    <t>4113_29</t>
+  </si>
+  <si>
+    <t>4113_30</t>
+  </si>
+  <si>
+    <t>4113_31</t>
+  </si>
+  <si>
+    <t>4113_32</t>
+  </si>
+  <si>
+    <t>4113_33</t>
+  </si>
+  <si>
+    <t>4113_34</t>
+  </si>
+  <si>
+    <t>4113_35</t>
+  </si>
+  <si>
+    <t>4113_36</t>
+  </si>
+  <si>
+    <t>4113_37</t>
+  </si>
+  <si>
+    <t>4113_38</t>
+  </si>
+  <si>
+    <t>4113_39</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -78,17 +240,30 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,14 +286,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -134,7 +312,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -419,534 +597,725 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6">
         <v>200</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7">
         <v>300</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8">
         <v>400</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9">
         <v>500</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10">
         <v>600</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11">
         <v>700</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12">
         <v>800</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13">
         <v>900</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="B14">
         <v>1000</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>11</v>
       </c>
       <c r="B15">
         <v>1100</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="B16">
         <v>1200</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>13</v>
       </c>
       <c r="B17">
         <v>1300</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C17" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>14</v>
       </c>
       <c r="B18">
         <v>1400</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>15</v>
       </c>
       <c r="B19">
         <v>1500</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>16</v>
       </c>
       <c r="B20">
         <v>1600</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C20" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>17</v>
       </c>
       <c r="B21">
         <v>1700</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C21" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>18</v>
       </c>
       <c r="B22">
         <v>1800</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C22" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>19</v>
       </c>
       <c r="B23">
         <v>1900</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C23" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>20</v>
       </c>
       <c r="B24">
         <v>2000</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C24" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>21</v>
       </c>
       <c r="B25">
         <v>2100</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C25" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>22</v>
       </c>
       <c r="B26">
         <v>2200</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C26" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>23</v>
       </c>
       <c r="B27">
         <v>2300</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C27" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>24</v>
       </c>
       <c r="B28">
         <v>2400</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C28" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>25</v>
       </c>
       <c r="B29">
         <v>2500</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C29" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>26</v>
       </c>
       <c r="B30">
         <v>2600</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C30" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>27</v>
       </c>
       <c r="B31">
         <v>2700</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C31" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>28</v>
       </c>
       <c r="B32">
         <v>2800</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C32" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>29</v>
       </c>
       <c r="B33">
         <v>2900</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C33" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>30</v>
       </c>
       <c r="B34">
         <v>3000</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C34" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>31</v>
       </c>
       <c r="B35">
         <v>3100</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C35" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>32</v>
       </c>
       <c r="B36">
         <v>3200</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C36" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>33</v>
       </c>
       <c r="B37">
         <v>3300</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C37" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>34</v>
       </c>
       <c r="B38">
         <v>3400</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C38" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>35</v>
       </c>
       <c r="B39">
         <v>3500</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C39" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>36</v>
       </c>
       <c r="B40">
         <v>3600</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C40" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>37</v>
       </c>
       <c r="B41">
         <v>3700</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C41" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>38</v>
       </c>
       <c r="B42">
         <v>3800</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C42" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>39</v>
       </c>
       <c r="B43">
         <v>3900</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C43" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>40</v>
       </c>
       <c r="B44">
         <v>4000</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C44" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>41</v>
       </c>
       <c r="B45">
         <v>4100</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C45" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>42</v>
       </c>
       <c r="B46">
         <v>4200</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C46" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>43</v>
       </c>
       <c r="B47">
         <v>4300</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C47" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>44</v>
       </c>
       <c r="B48">
         <v>4400</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C48" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>45</v>
       </c>
       <c r="B49">
         <v>4500</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C49" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>46</v>
       </c>
       <c r="B50">
         <v>4600</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C50" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>47</v>
       </c>
       <c r="B51">
         <v>4700</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C51" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>48</v>
       </c>
       <c r="B52">
         <v>4800</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C52" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>49</v>
       </c>
       <c r="B53">
         <v>4900</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C53" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>50</v>
       </c>
       <c r="B54">
         <v>5000</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C54" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>51</v>
       </c>
       <c r="B55">
         <v>5100</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C55" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>52</v>
       </c>
       <c r="B56">
         <v>5200</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C56" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>53</v>
       </c>
       <c r="B57">
         <v>5300</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C57" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>54</v>
       </c>
       <c r="B58">
         <v>5400</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C58" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>55</v>
       </c>
       <c r="B59">
         <v>5500</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C59" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>56</v>
       </c>
       <c r="B60">
         <v>5600</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C60" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>57</v>
       </c>
       <c r="B61">
         <v>5700</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C61" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>58</v>
       </c>
       <c r="B62">
         <v>5800</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C62" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63">
         <v>59</v>
       </c>
       <c r="B63">
         <v>5900</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C63" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64">
         <v>60</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>6000</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>